--- a/dataset/Grab/datasetgrab3.xlsx
+++ b/dataset/Grab/datasetgrab3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\AnalisisSentimen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\AnalisisSentimen\dataset\Grab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BFEF1FD-CC4C-4BED-AFDF-32D4285FC8C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16FE38CE-4891-438B-B5B0-F5C79B1FC373}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="6108" yWindow="3708" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="126">
   <si>
     <t>created_at</t>
   </si>
@@ -29,13 +29,6 @@
   </si>
   <si>
     <t>text</t>
-  </si>
-  <si>
-    <t>theelziofficial</t>
-  </si>
-  <si>
-    <t>Baru aja terjadi.
-Pesen Grab bike kan gw. Trus si abangnya dateng. Pas gw mau naik baru jalan mendekat k motor, tuh… https://t.co/FrtfcwJhtj</t>
   </si>
   <si>
     <t>junwaies02</t>
@@ -87,15 +80,6 @@
     <t>RT @LombongShopee: Sumpah murah giler promo @StarbucksMY RM10 per cup! Tengok la nih, min bayar RM5 jer untuk 1 cup sekali free delivery pu…</t>
   </si>
   <si>
-    <t>nina2000234</t>
-  </si>
-  <si>
-    <t>naullucu</t>
-  </si>
-  <si>
-    <t>@cippocii naik grab kesana lah</t>
-  </si>
-  <si>
     <t>RT @danialtsu: 2️⃣ Claim semua voucher tau!
 Grab semua discount voucher dgn delivery voucher ye! Lagi la berbaloi penjimatan korang tu 🥹🥹…</t>
   </si>
@@ -141,9 +125,6 @@
   </si>
   <si>
     <t>@dhelsadell @icanbgstbgt demi si perumahan paling elit ka dhel😀 wktu itu juga ada abang grab/gojek pas lg pembangua… https://t.co/6FR6vk7XGx</t>
-  </si>
-  <si>
-    <t>zaraismaill</t>
   </si>
   <si>
     <t>hellonabila_</t>
@@ -190,17 +171,10 @@
     <t>@pekalonganfess Buka aplikasi gojek/grab, tinggal pesen ae neng kono</t>
   </si>
   <si>
-    <t>@tuanmudakuyoshi Oh gitu, itu 1bln yaa?? 
-Iya coba deh cek di grab</t>
-  </si>
-  <si>
     <t>nfnasriyah7_</t>
   </si>
   <si>
     <t>@swanheritage_ Authorised dropship is here 😋, if nak tengok catalogue @ grab Klasik Sulam, boleh click link ni tau https://t.co/FMvKl1HJIH💖</t>
-  </si>
-  <si>
-    <t>taewoofav</t>
   </si>
   <si>
     <t>yeenhamzah</t>
@@ -234,9 +208,6 @@
 ✰ NETFLIX PR…</t>
   </si>
   <si>
-    <t>lia_wth</t>
-  </si>
-  <si>
     <t>helloimmiracle</t>
   </si>
   <si>
@@ -258,9 +229,6 @@
   </si>
   <si>
     <t>@gr8huda @abbyniz_twt @hally1989 awak nak kan??? thanks huda saya sempat grab tadi~</t>
-  </si>
-  <si>
-    <t>eikahyf</t>
   </si>
   <si>
     <t>Fendy_Morut2022</t>
@@ -319,15 +287,6 @@
 #JenniferLopez… https://t.co/qqjAfgOK9s</t>
   </si>
   <si>
-    <t>hanzgadgettt</t>
-  </si>
-  <si>
-    <t>Blessedthisman</t>
-  </si>
-  <si>
-    <t>Lepas keluar ward teringin makan ni. Alhamdulillah nasib baik ada grab https://t.co/eccx7tw4vp</t>
-  </si>
-  <si>
     <t>reejunn</t>
   </si>
   <si>
@@ -335,9 +294,6 @@
 huhu pas itu abis… https://t.co/P1I5xUMmCK</t>
   </si>
   <si>
-    <t>syuhadaSS_J</t>
-  </si>
-  <si>
     <t>caelin_sutch</t>
   </si>
   <si>
@@ -350,13 +306,7 @@
     <t>RT @aw_storehq: Min tengah open PRE ORDER untuk cookies size M. Postage next week hari selasa. Meh siapa yg craving lama dah tu grab sekara…</t>
   </si>
   <si>
-    <t>aalyaathrhh</t>
-  </si>
-  <si>
     <t>@PaanZaini kerja FP/Grab full time ok tak? jujur tau, takda cover cover..</t>
-  </si>
-  <si>
-    <t>tatjanaviby</t>
   </si>
   <si>
     <t>Lwehyunseo</t>
@@ -366,12 +316,6 @@
 🐇 :  jel ada layout ready stock gg dan ulzzang nya nih! 🌷 get ava png only 💗 bisa d…</t>
   </si>
   <si>
-    <t>theiceraf</t>
-  </si>
-  <si>
-    <t>amirahasya__</t>
-  </si>
-  <si>
     <t>ifherenotforyou</t>
   </si>
   <si>
@@ -384,9 +328,6 @@
     <t>next buat promo gojek/grab buat pelajar dong https://t.co/TWj3OPGiU9</t>
   </si>
   <si>
-    <t>ainunsyahirah</t>
-  </si>
-  <si>
     <t>denni_aji</t>
   </si>
   <si>
@@ -399,9 +340,6 @@
     <t>@uusbiasaaja Tiap di ipoint liatnya bapak2 gojek apa grab 🙃</t>
   </si>
   <si>
-    <t>Helenn_BKNFIKSI</t>
-  </si>
-  <si>
     <t>shelurvescoffee</t>
   </si>
   <si>
@@ -412,9 +350,6 @@
   </si>
   <si>
     <t>moots! Mas grab nya tampan bintang lima ⭐⭐⭐⭐⭐ https://t.co/MdsUX8wG87</t>
-  </si>
-  <si>
-    <t>frhzzn</t>
   </si>
   <si>
     <t>Audymelatii</t>
@@ -426,9 +361,6 @@
 26 - 27 availjakpus…</t>
   </si>
   <si>
-    <t>negyeote</t>
-  </si>
-  <si>
     <t>keppyyomar</t>
   </si>
   <si>
@@ -439,46 +371,6 @@
   </si>
   <si>
     <t>@ehyia_sofea Syok noh banyak duit senang takyah pikiaq grab teruih. Hat tak banyak ni sepuluh kali pikiaq 🥲</t>
-  </si>
-  <si>
-    <t>shaharilrohimi_</t>
-  </si>
-  <si>
-    <t>furrrrytale</t>
-  </si>
-  <si>
-    <t>Aleaavendaaa</t>
-  </si>
-  <si>
-    <t>Tunggu apa tu ? Boleh grab di 
-♪ Link : https://t.co/qU49fumfnR</t>
-  </si>
-  <si>
-    <t>inlander208</t>
-  </si>
-  <si>
-    <t>@Indostransfer Gajadi nge grab doi ya?</t>
-  </si>
-  <si>
-    <t>zymm__95</t>
-  </si>
-  <si>
-    <t>Budak pemandu grab car skrng semua handsome 🥰</t>
-  </si>
-  <si>
-    <t>littleprrcs</t>
-  </si>
-  <si>
-    <t>RidearoundJ</t>
-  </si>
-  <si>
-    <t>@RepBoebert Gun grab?  Liar.</t>
-  </si>
-  <si>
-    <t>ilyliel</t>
-  </si>
-  <si>
-    <t>@GrabID min ada ga grab car di pare kediri?</t>
   </si>
   <si>
     <t>KramatJa3</t>
@@ -519,25 +411,10 @@
     <t>alasan knp aku jarang bgt main. gaboleh kemana2 sendiri harus dianter jemput sdgkan papiku sibuk kerja. gaboleh nai… https://t.co/d73paDLAr2</t>
   </si>
   <si>
-    <t>Femylia9</t>
-  </si>
-  <si>
-    <t>97NISAIURS</t>
-  </si>
-  <si>
-    <t>sukhooner</t>
-  </si>
-  <si>
     <t>tttttiaraaaa</t>
   </si>
   <si>
     <t>@gakadagunanya_ @FWBESS Pake grab banyak promo</t>
-  </si>
-  <si>
-    <t>ciohooby</t>
-  </si>
-  <si>
-    <t>octiaarr</t>
   </si>
   <si>
     <t>RezkyAml_m</t>
@@ -645,7 +522,18 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -943,10 +831,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D101"/>
+  <dimension ref="A1:D74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="D61" sqref="B57:D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -971,15 +859,6 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" s="2">
-        <v>44760</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
@@ -989,10 +868,10 @@
         <v>44760</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -1003,10 +882,10 @@
         <v>44760</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -1017,10 +896,10 @@
         <v>44760</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -1031,10 +910,10 @@
         <v>44760</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -1045,10 +924,10 @@
         <v>44760</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -1059,10 +938,10 @@
         <v>44760</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -1073,25 +952,16 @@
         <v>44760</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" s="2">
-        <v>44760</v>
-      </c>
-      <c r="C10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" t="s">
-        <v>18</v>
-      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
@@ -1101,10 +971,10 @@
         <v>44760</v>
       </c>
       <c r="C11" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -1115,10 +985,10 @@
         <v>44760</v>
       </c>
       <c r="C12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -1129,10 +999,10 @@
         <v>44760</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -1143,10 +1013,10 @@
         <v>44760</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -1157,10 +1027,10 @@
         <v>44760</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D15" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -1171,10 +1041,10 @@
         <v>44760</v>
       </c>
       <c r="C16" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -1185,10 +1055,10 @@
         <v>44760</v>
       </c>
       <c r="C17" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D17" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -1199,10 +1069,10 @@
         <v>44760</v>
       </c>
       <c r="C18" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D18" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -1213,10 +1083,10 @@
         <v>44760</v>
       </c>
       <c r="C19" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D19" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -1227,10 +1097,10 @@
         <v>44760</v>
       </c>
       <c r="C20" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D20" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -1241,10 +1111,10 @@
         <v>44760</v>
       </c>
       <c r="C21" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D21" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -1255,10 +1125,10 @@
         <v>44760</v>
       </c>
       <c r="C22" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D22" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -1269,10 +1139,10 @@
         <v>44760</v>
       </c>
       <c r="C23" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" t="s">
         <v>40</v>
-      </c>
-      <c r="D23" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -1283,25 +1153,16 @@
         <v>44760</v>
       </c>
       <c r="C24" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D24" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25" s="2">
-        <v>44760</v>
-      </c>
-      <c r="C25" t="s">
-        <v>45</v>
-      </c>
-      <c r="D25" t="s">
-        <v>46</v>
-      </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
@@ -1311,10 +1172,10 @@
         <v>44760</v>
       </c>
       <c r="C26" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D26" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -1325,10 +1186,10 @@
         <v>44760</v>
       </c>
       <c r="C27" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D27" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -1339,10 +1200,10 @@
         <v>44760</v>
       </c>
       <c r="C28" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="D28" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -1353,10 +1214,10 @@
         <v>44760</v>
       </c>
       <c r="C29" t="s">
+        <v>49</v>
+      </c>
+      <c r="D29" t="s">
         <v>50</v>
-      </c>
-      <c r="D29" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -1367,10 +1228,10 @@
         <v>44760</v>
       </c>
       <c r="C30" t="s">
+        <v>51</v>
+      </c>
+      <c r="D30" t="s">
         <v>52</v>
-      </c>
-      <c r="D30" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -1395,10 +1256,10 @@
         <v>44760</v>
       </c>
       <c r="C32" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D32" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -1409,10 +1270,10 @@
         <v>44760</v>
       </c>
       <c r="C33" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D33" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -1423,10 +1284,10 @@
         <v>44760</v>
       </c>
       <c r="C34" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D34" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -1437,10 +1298,10 @@
         <v>44760</v>
       </c>
       <c r="C35" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D35" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -1451,10 +1312,10 @@
         <v>44760</v>
       </c>
       <c r="C36" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D36" t="s">
-        <v>18</v>
+        <v>64</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
@@ -1465,10 +1326,10 @@
         <v>44760</v>
       </c>
       <c r="C37" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="D37" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
@@ -1479,10 +1340,10 @@
         <v>44760</v>
       </c>
       <c r="C38" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D38" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
@@ -1493,10 +1354,10 @@
         <v>44760</v>
       </c>
       <c r="C39" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D39" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
@@ -1507,10 +1368,10 @@
         <v>44760</v>
       </c>
       <c r="C40" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D40" t="s">
-        <v>18</v>
+        <v>71</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
@@ -1521,25 +1382,16 @@
         <v>44760</v>
       </c>
       <c r="C41" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="D41" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>40</v>
       </c>
-      <c r="B42" s="2">
-        <v>44760</v>
-      </c>
-      <c r="C42" t="s">
-        <v>71</v>
-      </c>
-      <c r="D42" t="s">
-        <v>72</v>
-      </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
@@ -1563,10 +1415,10 @@
         <v>44760</v>
       </c>
       <c r="C44" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="D44" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
@@ -1577,10 +1429,10 @@
         <v>44760</v>
       </c>
       <c r="C45" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D45" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
@@ -1591,7 +1443,7 @@
         <v>44760</v>
       </c>
       <c r="C46" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="D46" t="s">
         <v>79</v>
@@ -1619,10 +1471,10 @@
         <v>44760</v>
       </c>
       <c r="C48" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="D48" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
@@ -1633,10 +1485,10 @@
         <v>44760</v>
       </c>
       <c r="C49" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D49" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
@@ -1647,10 +1499,10 @@
         <v>44760</v>
       </c>
       <c r="C50" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D50" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
@@ -1661,10 +1513,10 @@
         <v>44760</v>
       </c>
       <c r="C51" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D51" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
@@ -1675,10 +1527,10 @@
         <v>44760</v>
       </c>
       <c r="C52" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D52" t="s">
-        <v>18</v>
+        <v>91</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
@@ -1689,10 +1541,10 @@
         <v>44760</v>
       </c>
       <c r="C53" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D53" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
@@ -1703,10 +1555,10 @@
         <v>44760</v>
       </c>
       <c r="C54" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D54" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
@@ -1717,10 +1569,10 @@
         <v>44760</v>
       </c>
       <c r="C55" t="s">
-        <v>61</v>
+        <v>96</v>
       </c>
       <c r="D55" t="s">
-        <v>39</v>
+        <v>97</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
@@ -1731,81 +1583,36 @@
         <v>44760</v>
       </c>
       <c r="C56" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="D56" t="s">
-        <v>18</v>
+        <v>99</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>55</v>
       </c>
-      <c r="B57" s="2">
-        <v>44760</v>
-      </c>
-      <c r="C57" t="s">
-        <v>53</v>
-      </c>
-      <c r="D57" t="s">
-        <v>94</v>
-      </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>56</v>
       </c>
-      <c r="B58" s="2">
-        <v>44760</v>
-      </c>
-      <c r="C58" t="s">
-        <v>95</v>
-      </c>
-      <c r="D58" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>57</v>
       </c>
-      <c r="B59" s="2">
-        <v>44760</v>
-      </c>
-      <c r="C59" t="s">
-        <v>96</v>
-      </c>
-      <c r="D59" t="s">
-        <v>97</v>
-      </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>58</v>
       </c>
-      <c r="B60" s="2">
-        <v>44760</v>
-      </c>
-      <c r="C60" t="s">
-        <v>98</v>
-      </c>
-      <c r="D60" t="s">
-        <v>72</v>
-      </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>59</v>
       </c>
-      <c r="B61" s="2">
-        <v>44760</v>
-      </c>
-      <c r="C61" t="s">
-        <v>99</v>
-      </c>
-      <c r="D61" t="s">
-        <v>18</v>
-      </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
@@ -1846,7 +1653,7 @@
         <v>104</v>
       </c>
       <c r="D64" t="s">
-        <v>18</v>
+        <v>105</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
@@ -1857,10 +1664,10 @@
         <v>44760</v>
       </c>
       <c r="C65" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D65" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
@@ -1871,10 +1678,10 @@
         <v>44760</v>
       </c>
       <c r="C66" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D66" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
@@ -1885,10 +1692,10 @@
         <v>44760</v>
       </c>
       <c r="C67" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D67" t="s">
-        <v>14</v>
+        <v>111</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
@@ -1899,10 +1706,10 @@
         <v>44760</v>
       </c>
       <c r="C68" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D68" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
@@ -1913,10 +1720,10 @@
         <v>44760</v>
       </c>
       <c r="C69" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D69" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
@@ -1927,10 +1734,10 @@
         <v>44760</v>
       </c>
       <c r="C70" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D70" t="s">
-        <v>18</v>
+        <v>117</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
@@ -1941,10 +1748,10 @@
         <v>44760</v>
       </c>
       <c r="C71" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D71" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
@@ -1955,10 +1762,10 @@
         <v>44760</v>
       </c>
       <c r="C72" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D72" t="s">
-        <v>14</v>
+        <v>121</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
@@ -1969,10 +1776,10 @@
         <v>44760</v>
       </c>
       <c r="C73" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="D73" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
@@ -1983,391 +1790,16 @@
         <v>44760</v>
       </c>
       <c r="C74" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="D74" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A75" s="1">
-        <v>73</v>
-      </c>
-      <c r="B75" s="2">
-        <v>44760</v>
-      </c>
-      <c r="C75" t="s">
-        <v>122</v>
-      </c>
-      <c r="D75" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A76" s="1">
-        <v>74</v>
-      </c>
-      <c r="B76" s="2">
-        <v>44760</v>
-      </c>
-      <c r="C76" t="s">
-        <v>123</v>
-      </c>
-      <c r="D76" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A77" s="1">
-        <v>75</v>
-      </c>
-      <c r="B77" s="2">
-        <v>44760</v>
-      </c>
-      <c r="C77" t="s">
-        <v>124</v>
-      </c>
-      <c r="D77" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A78" s="1">
-        <v>76</v>
-      </c>
-      <c r="B78" s="2">
-        <v>44760</v>
-      </c>
-      <c r="C78" t="s">
-        <v>126</v>
-      </c>
-      <c r="D78" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A79" s="1">
-        <v>77</v>
-      </c>
-      <c r="B79" s="2">
-        <v>44760</v>
-      </c>
-      <c r="C79" t="s">
-        <v>128</v>
-      </c>
-      <c r="D79" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A80" s="1">
-        <v>78</v>
-      </c>
-      <c r="B80" s="2">
-        <v>44760</v>
-      </c>
-      <c r="C80" t="s">
-        <v>130</v>
-      </c>
-      <c r="D80" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A81" s="1">
-        <v>79</v>
-      </c>
-      <c r="B81" s="2">
-        <v>44760</v>
-      </c>
-      <c r="C81" t="s">
-        <v>131</v>
-      </c>
-      <c r="D81" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A82" s="1">
-        <v>80</v>
-      </c>
-      <c r="B82" s="2">
-        <v>44760</v>
-      </c>
-      <c r="C82" t="s">
-        <v>133</v>
-      </c>
-      <c r="D82" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A83" s="1">
-        <v>81</v>
-      </c>
-      <c r="B83" s="2">
-        <v>44760</v>
-      </c>
-      <c r="C83" t="s">
-        <v>135</v>
-      </c>
-      <c r="D83" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A84" s="1">
-        <v>82</v>
-      </c>
-      <c r="B84" s="2">
-        <v>44760</v>
-      </c>
-      <c r="C84" t="s">
-        <v>137</v>
-      </c>
-      <c r="D84" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A85" s="1">
-        <v>83</v>
-      </c>
-      <c r="B85" s="2">
-        <v>44760</v>
-      </c>
-      <c r="C85" t="s">
-        <v>139</v>
-      </c>
-      <c r="D85" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A86" s="1">
-        <v>84</v>
-      </c>
-      <c r="B86" s="2">
-        <v>44760</v>
-      </c>
-      <c r="C86" t="s">
-        <v>141</v>
-      </c>
-      <c r="D86" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A87" s="1">
-        <v>85</v>
-      </c>
-      <c r="B87" s="2">
-        <v>44760</v>
-      </c>
-      <c r="C87" t="s">
-        <v>143</v>
-      </c>
-      <c r="D87" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A88" s="1">
-        <v>86</v>
-      </c>
-      <c r="B88" s="2">
-        <v>44760</v>
-      </c>
-      <c r="C88" t="s">
-        <v>17</v>
-      </c>
-      <c r="D88" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A89" s="1">
-        <v>87</v>
-      </c>
-      <c r="B89" s="2">
-        <v>44760</v>
-      </c>
-      <c r="C89" t="s">
-        <v>145</v>
-      </c>
-      <c r="D89" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A90" s="1">
-        <v>88</v>
-      </c>
-      <c r="B90" s="2">
-        <v>44760</v>
-      </c>
-      <c r="C90" t="s">
-        <v>147</v>
-      </c>
-      <c r="D90" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A91" s="1">
-        <v>89</v>
-      </c>
-      <c r="B91" s="2">
-        <v>44760</v>
-      </c>
-      <c r="C91" t="s">
-        <v>148</v>
-      </c>
-      <c r="D91" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A92" s="1">
-        <v>90</v>
-      </c>
-      <c r="B92" s="2">
-        <v>44760</v>
-      </c>
-      <c r="C92" t="s">
-        <v>149</v>
-      </c>
-      <c r="D92" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A93" s="1">
-        <v>91</v>
-      </c>
-      <c r="B93" s="2">
-        <v>44760</v>
-      </c>
-      <c r="C93" t="s">
-        <v>150</v>
-      </c>
-      <c r="D93" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A94" s="1">
-        <v>92</v>
-      </c>
-      <c r="B94" s="2">
-        <v>44760</v>
-      </c>
-      <c r="C94" t="s">
-        <v>152</v>
-      </c>
-      <c r="D94" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A95" s="1">
-        <v>93</v>
-      </c>
-      <c r="B95" s="2">
-        <v>44760</v>
-      </c>
-      <c r="C95" t="s">
-        <v>153</v>
-      </c>
-      <c r="D95" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A96" s="1">
-        <v>94</v>
-      </c>
-      <c r="B96" s="2">
-        <v>44760</v>
-      </c>
-      <c r="C96" t="s">
-        <v>154</v>
-      </c>
-      <c r="D96" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A97" s="1">
-        <v>95</v>
-      </c>
-      <c r="B97" s="2">
-        <v>44760</v>
-      </c>
-      <c r="C97" t="s">
-        <v>156</v>
-      </c>
-      <c r="D97" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A98" s="1">
-        <v>96</v>
-      </c>
-      <c r="B98" s="2">
-        <v>44760</v>
-      </c>
-      <c r="C98" t="s">
-        <v>158</v>
-      </c>
-      <c r="D98" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A99" s="1">
-        <v>97</v>
-      </c>
-      <c r="B99" s="2">
-        <v>44760</v>
-      </c>
-      <c r="C99" t="s">
-        <v>160</v>
-      </c>
-      <c r="D99" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A100" s="1">
-        <v>98</v>
-      </c>
-      <c r="B100" s="2">
-        <v>44760</v>
-      </c>
-      <c r="C100" t="s">
-        <v>162</v>
-      </c>
-      <c r="D100" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A101" s="1">
-        <v>99</v>
-      </c>
-      <c r="B101" s="2">
-        <v>44760</v>
-      </c>
-      <c r="C101" t="s">
-        <v>164</v>
-      </c>
-      <c r="D101" t="s">
-        <v>165</v>
-      </c>
-    </row>
   </sheetData>
+  <conditionalFormatting sqref="D26:D41 D43:D56 D62:D74">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>